--- a/exercice2.xlsx
+++ b/exercice2.xlsx
@@ -741,9 +741,7 @@
           <t>Bénéfice optimal</t>
         </is>
       </c>
-      <c r="B1" t="n">
-        <v>10625</v>
-      </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -818,66 +816,26 @@
           <t>Nombre chargé</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>19</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>15</v>
-      </c>
-      <c r="O3" t="n">
-        <v>14</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>20</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
